--- a/data/pca/factorExposure/factorExposure_2009-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01639724490618948</v>
+        <v>0.01518570898933051</v>
       </c>
       <c r="C2">
-        <v>-0.009450781622188273</v>
+        <v>0.01066838397070308</v>
       </c>
       <c r="D2">
-        <v>0.01673643221597661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01613703120804179</v>
+      </c>
+      <c r="E2">
+        <v>-0.0006069261013406371</v>
+      </c>
+      <c r="F2">
+        <v>-0.006024409458497563</v>
+      </c>
+      <c r="G2">
+        <v>0.01842311249686754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08202202470058441</v>
+        <v>0.084170224578019</v>
       </c>
       <c r="C4">
-        <v>-0.08114859815700112</v>
+        <v>0.08671319398433439</v>
       </c>
       <c r="D4">
-        <v>-0.06587513614387319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06532307320951852</v>
+      </c>
+      <c r="E4">
+        <v>0.007917526948897191</v>
+      </c>
+      <c r="F4">
+        <v>-0.04013161240237941</v>
+      </c>
+      <c r="G4">
+        <v>0.03127302327008293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002535854849317372</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001340865429399563</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0005443342507098929</v>
+      </c>
+      <c r="E5">
+        <v>-0.00317126581180909</v>
+      </c>
+      <c r="F5">
+        <v>0.001679950197215048</v>
+      </c>
+      <c r="G5">
+        <v>-0.002108360451157042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1679871537144298</v>
+        <v>0.1703294044563582</v>
       </c>
       <c r="C6">
-        <v>0.01916830435930975</v>
+        <v>-0.01093814695505258</v>
       </c>
       <c r="D6">
-        <v>-0.05541504715298533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05673933890002725</v>
+      </c>
+      <c r="E6">
+        <v>0.01854756021862751</v>
+      </c>
+      <c r="F6">
+        <v>0.0549334508734326</v>
+      </c>
+      <c r="G6">
+        <v>-0.01766259394622594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05460453217631117</v>
+        <v>0.05897183756757342</v>
       </c>
       <c r="C7">
-        <v>-0.05725139226968423</v>
+        <v>0.06290392421079244</v>
       </c>
       <c r="D7">
-        <v>-0.04702732597051149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05491332211045181</v>
+      </c>
+      <c r="E7">
+        <v>0.04633941971532703</v>
+      </c>
+      <c r="F7">
+        <v>-0.06733087808369799</v>
+      </c>
+      <c r="G7">
+        <v>0.04647335667739667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05761029742890546</v>
+        <v>0.0539628058067406</v>
       </c>
       <c r="C8">
-        <v>-0.04692374169305884</v>
+        <v>0.04778158120814085</v>
       </c>
       <c r="D8">
-        <v>0.0225034850615943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02202891558062216</v>
+      </c>
+      <c r="E8">
+        <v>-0.03156480842516132</v>
+      </c>
+      <c r="F8">
+        <v>-0.03625100625832581</v>
+      </c>
+      <c r="G8">
+        <v>-0.001762484480342692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06158266880534425</v>
+        <v>0.06502930491525732</v>
       </c>
       <c r="C9">
-        <v>-0.08751399338565335</v>
+        <v>0.09098610014850575</v>
       </c>
       <c r="D9">
-        <v>-0.08786586176725412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08463092651781698</v>
+      </c>
+      <c r="E9">
+        <v>0.01250652510557904</v>
+      </c>
+      <c r="F9">
+        <v>-0.06440365431211095</v>
+      </c>
+      <c r="G9">
+        <v>0.004925784365979921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1066375392807855</v>
+        <v>0.09879900075007497</v>
       </c>
       <c r="C10">
-        <v>0.1528145333511762</v>
+        <v>-0.144721010338347</v>
       </c>
       <c r="D10">
-        <v>0.1086838768216656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09761992513255616</v>
+      </c>
+      <c r="E10">
+        <v>0.005162844541517366</v>
+      </c>
+      <c r="F10">
+        <v>-0.0455089660815381</v>
+      </c>
+      <c r="G10">
+        <v>-0.004444810272806064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07932190107314083</v>
+        <v>0.07718523874349388</v>
       </c>
       <c r="C11">
-        <v>-0.1289562293033259</v>
+        <v>0.1284332138522997</v>
       </c>
       <c r="D11">
-        <v>-0.05504274687577301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04669855551905882</v>
+      </c>
+      <c r="E11">
+        <v>-0.0124095925593474</v>
+      </c>
+      <c r="F11">
+        <v>-0.08155489645971084</v>
+      </c>
+      <c r="G11">
+        <v>0.009562924727954314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0833048308714915</v>
+        <v>0.07922567733600364</v>
       </c>
       <c r="C12">
-        <v>-0.1475723441312015</v>
+        <v>0.1488751215289389</v>
       </c>
       <c r="D12">
-        <v>-0.05973082569213167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05499026972852717</v>
+      </c>
+      <c r="E12">
+        <v>-0.003006212282460999</v>
+      </c>
+      <c r="F12">
+        <v>-0.0884728545582129</v>
+      </c>
+      <c r="G12">
+        <v>0.01267465495769877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04189353349633917</v>
+        <v>0.04239424629010689</v>
       </c>
       <c r="C13">
-        <v>-0.06153823026870174</v>
+        <v>0.06943383183337823</v>
       </c>
       <c r="D13">
-        <v>-0.0267454873922443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02673548315012551</v>
+      </c>
+      <c r="E13">
+        <v>0.009396915142224347</v>
+      </c>
+      <c r="F13">
+        <v>-0.08042200317774056</v>
+      </c>
+      <c r="G13">
+        <v>0.01207331715741417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01949890817739209</v>
+        <v>0.02287578671140998</v>
       </c>
       <c r="C14">
-        <v>-0.04296500965858081</v>
+        <v>0.04321332665869198</v>
       </c>
       <c r="D14">
-        <v>-0.05053483339140092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04516828719673927</v>
+      </c>
+      <c r="E14">
+        <v>-0.007510129791160458</v>
+      </c>
+      <c r="F14">
+        <v>-0.08784335400114418</v>
+      </c>
+      <c r="G14">
+        <v>0.0003724265703480665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03124014473112854</v>
+        <v>0.0336092019289175</v>
       </c>
       <c r="C15">
-        <v>-0.0563364999212019</v>
+        <v>0.05586870145014048</v>
       </c>
       <c r="D15">
-        <v>-0.04467383239635903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0400020254371721</v>
+      </c>
+      <c r="E15">
+        <v>0.01218926171414297</v>
+      </c>
+      <c r="F15">
+        <v>-0.03459148648540603</v>
+      </c>
+      <c r="G15">
+        <v>-0.008744585013075783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05776385313546724</v>
+        <v>0.05793949836672967</v>
       </c>
       <c r="C16">
-        <v>-0.1440414274619736</v>
+        <v>0.1435009064241079</v>
       </c>
       <c r="D16">
-        <v>-0.06844877309904221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05916133693119879</v>
+      </c>
+      <c r="E16">
+        <v>-0.02641710218895954</v>
+      </c>
+      <c r="F16">
+        <v>-0.08448887738630621</v>
+      </c>
+      <c r="G16">
+        <v>0.01425085155140783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004915246390595739</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.00429295603585492</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001433480962621104</v>
+      </c>
+      <c r="E17">
+        <v>-0.01046944788219635</v>
+      </c>
+      <c r="F17">
+        <v>0.004478408052015028</v>
+      </c>
+      <c r="G17">
+        <v>-0.01681968946969814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03509327808507844</v>
+        <v>0.05142551785778098</v>
       </c>
       <c r="C18">
-        <v>-0.04417438359579831</v>
+        <v>0.03932654554695797</v>
       </c>
       <c r="D18">
-        <v>0.004669430447376155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01140375300693231</v>
+      </c>
+      <c r="E18">
+        <v>-0.003128859221207111</v>
+      </c>
+      <c r="F18">
+        <v>0.04461064226785882</v>
+      </c>
+      <c r="G18">
+        <v>-0.01339496719084363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05701028053847525</v>
+        <v>0.0573749065035967</v>
       </c>
       <c r="C20">
-        <v>-0.09420432013525017</v>
+        <v>0.09383596812968724</v>
       </c>
       <c r="D20">
-        <v>-0.07565728275080882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0725051882648018</v>
+      </c>
+      <c r="E20">
+        <v>-0.01589431896488932</v>
+      </c>
+      <c r="F20">
+        <v>-0.07339245649172181</v>
+      </c>
+      <c r="G20">
+        <v>-0.002070211522292534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04189088876214269</v>
+        <v>0.04417511693463227</v>
       </c>
       <c r="C21">
-        <v>-0.05592344582847926</v>
+        <v>0.05425955122796349</v>
       </c>
       <c r="D21">
-        <v>-0.002570555865506113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0003488820591896371</v>
+      </c>
+      <c r="E21">
+        <v>0.009184953381333792</v>
+      </c>
+      <c r="F21">
+        <v>-0.07742461044896093</v>
+      </c>
+      <c r="G21">
+        <v>0.03083655162980652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0445413487059033</v>
+        <v>0.04319199184933446</v>
       </c>
       <c r="C22">
-        <v>-0.01832088994287596</v>
+        <v>0.01999296576451304</v>
       </c>
       <c r="D22">
-        <v>0.01591686128289817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03899979305915719</v>
+      </c>
+      <c r="E22">
+        <v>-0.1277369930084122</v>
+      </c>
+      <c r="F22">
+        <v>0.01604368393788267</v>
+      </c>
+      <c r="G22">
+        <v>0.001601670644783597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0445507153918865</v>
+        <v>0.04319995177001706</v>
       </c>
       <c r="C23">
-        <v>-0.01831303015046767</v>
+        <v>0.01998619911653295</v>
       </c>
       <c r="D23">
-        <v>0.01594247538695638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03902761938891395</v>
+      </c>
+      <c r="E23">
+        <v>-0.1277724650263984</v>
+      </c>
+      <c r="F23">
+        <v>0.01603493309462002</v>
+      </c>
+      <c r="G23">
+        <v>0.001566638916596914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06731467936720534</v>
+        <v>0.0667502858699866</v>
       </c>
       <c r="C24">
-        <v>-0.1381041881207499</v>
+        <v>0.1361246207833069</v>
       </c>
       <c r="D24">
-        <v>-0.0612268400569569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05469018746984864</v>
+      </c>
+      <c r="E24">
+        <v>-0.007544812290258884</v>
+      </c>
+      <c r="F24">
+        <v>-0.07736579122609268</v>
+      </c>
+      <c r="G24">
+        <v>0.0145288003993686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07267741504063752</v>
+        <v>0.07098904275729816</v>
       </c>
       <c r="C25">
-        <v>-0.1211520392236886</v>
+        <v>0.1194076804574883</v>
       </c>
       <c r="D25">
-        <v>-0.04440672088079783</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0359117200985286</v>
+      </c>
+      <c r="E25">
+        <v>0.02060973566709026</v>
+      </c>
+      <c r="F25">
+        <v>-0.09168398269797871</v>
+      </c>
+      <c r="G25">
+        <v>0.01855479104561972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05533067596354562</v>
+        <v>0.05996218620242811</v>
       </c>
       <c r="C26">
-        <v>-0.06481194265064448</v>
+        <v>0.06600544875741295</v>
       </c>
       <c r="D26">
-        <v>-0.02224926562174227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01823141176756661</v>
+      </c>
+      <c r="E26">
+        <v>-0.008842087235896847</v>
+      </c>
+      <c r="F26">
+        <v>-0.08363790502746733</v>
+      </c>
+      <c r="G26">
+        <v>0.001855088649918423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.169573177547587</v>
+        <v>0.1719240397919579</v>
       </c>
       <c r="C28">
-        <v>0.2302674041647931</v>
+        <v>-0.231266628693222</v>
       </c>
       <c r="D28">
-        <v>0.02442140004806835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02989926001403747</v>
+      </c>
+      <c r="E28">
+        <v>0.06233241112204658</v>
+      </c>
+      <c r="F28">
+        <v>-0.1292691275021217</v>
+      </c>
+      <c r="G28">
+        <v>-0.0001928305980815421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02402956115739687</v>
+        <v>0.02698574315970183</v>
       </c>
       <c r="C29">
-        <v>-0.04743848606274791</v>
+        <v>0.04512976608240529</v>
       </c>
       <c r="D29">
-        <v>-0.01148522346426506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.007199563803653952</v>
+      </c>
+      <c r="E29">
+        <v>-0.02606904264635216</v>
+      </c>
+      <c r="F29">
+        <v>-0.07813303360856179</v>
+      </c>
+      <c r="G29">
+        <v>0.00386243999219166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04010682802543045</v>
+        <v>0.04260641049811287</v>
       </c>
       <c r="C30">
-        <v>-0.06943111808205484</v>
+        <v>0.07685205540399791</v>
       </c>
       <c r="D30">
-        <v>-0.1177272254212827</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.104025006017578</v>
+      </c>
+      <c r="E30">
+        <v>0.0645456457490684</v>
+      </c>
+      <c r="F30">
+        <v>-0.07859156078784453</v>
+      </c>
+      <c r="G30">
+        <v>-0.02211751167664248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05226939868574813</v>
+        <v>0.05165339573003416</v>
       </c>
       <c r="C31">
-        <v>-0.03144268742666671</v>
+        <v>0.03463493789478739</v>
       </c>
       <c r="D31">
-        <v>-0.01195132156472289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01469647617653804</v>
+      </c>
+      <c r="E31">
+        <v>-0.03468524847261116</v>
+      </c>
+      <c r="F31">
+        <v>-0.01584526858343355</v>
+      </c>
+      <c r="G31">
+        <v>0.02532041237125229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04336223682634215</v>
+        <v>0.04797249746546</v>
       </c>
       <c r="C32">
-        <v>-0.0477250691512789</v>
+        <v>0.04484227739854766</v>
       </c>
       <c r="D32">
-        <v>-0.02067447460981437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02089114994936304</v>
+      </c>
+      <c r="E32">
+        <v>-0.03202261779886263</v>
+      </c>
+      <c r="F32">
+        <v>-0.009056687429308716</v>
+      </c>
+      <c r="G32">
+        <v>-0.01283860627785453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0790733166050468</v>
+        <v>0.08262995584367672</v>
       </c>
       <c r="C33">
-        <v>-0.1091134796037358</v>
+        <v>0.1177392754644451</v>
       </c>
       <c r="D33">
-        <v>-0.068179986138316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06813984197015246</v>
+      </c>
+      <c r="E33">
+        <v>-0.01578573816076431</v>
+      </c>
+      <c r="F33">
+        <v>-0.07778833922513498</v>
+      </c>
+      <c r="G33">
+        <v>0.0100120598603039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05624018069978694</v>
+        <v>0.05591425964670147</v>
       </c>
       <c r="C34">
-        <v>-0.1222701432183885</v>
+        <v>0.1237998048477489</v>
       </c>
       <c r="D34">
-        <v>-0.07695210173153107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06326291139218335</v>
+      </c>
+      <c r="E34">
+        <v>0.02259724751211817</v>
+      </c>
+      <c r="F34">
+        <v>-0.08775700882006139</v>
+      </c>
+      <c r="G34">
+        <v>-0.01485424362192182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02690672222214648</v>
+        <v>0.02881387115702132</v>
       </c>
       <c r="C35">
-        <v>-0.01522038429520861</v>
+        <v>0.01647575417361801</v>
       </c>
       <c r="D35">
-        <v>-0.02463725888441437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0200970072630864</v>
+      </c>
+      <c r="E35">
+        <v>-0.02065046461230279</v>
+      </c>
+      <c r="F35">
+        <v>-0.04042302949614376</v>
+      </c>
+      <c r="G35">
+        <v>-0.02466421250481292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02234903955724262</v>
+        <v>0.0270035605241869</v>
       </c>
       <c r="C36">
-        <v>-0.04610428069132532</v>
+        <v>0.0469355150145879</v>
       </c>
       <c r="D36">
-        <v>-0.06022275798156035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0505932687017874</v>
+      </c>
+      <c r="E36">
+        <v>-0.01301301163721027</v>
+      </c>
+      <c r="F36">
+        <v>-0.04460604492471119</v>
+      </c>
+      <c r="G36">
+        <v>-0.08030201125017318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003567941423253233</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.00640490788068585</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>4.981204903703322e-05</v>
+      </c>
+      <c r="E37">
+        <v>-0.001828264192320327</v>
+      </c>
+      <c r="F37">
+        <v>-0.009413667816377296</v>
+      </c>
+      <c r="G37">
+        <v>0.006735124978459966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08478813852472206</v>
+        <v>0.07903690776421417</v>
       </c>
       <c r="C39">
-        <v>-0.1524758742852094</v>
+        <v>0.1475459034298059</v>
       </c>
       <c r="D39">
-        <v>-0.04414418044869418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03731083480355741</v>
+      </c>
+      <c r="E39">
+        <v>-0.01221932058893819</v>
+      </c>
+      <c r="F39">
+        <v>-0.1242547360206215</v>
+      </c>
+      <c r="G39">
+        <v>0.05559617304235262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04506284292939614</v>
+        <v>0.05091061492640726</v>
       </c>
       <c r="C40">
-        <v>-0.05887286601183624</v>
+        <v>0.06354091395006574</v>
       </c>
       <c r="D40">
-        <v>-0.01056252659593195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.003912849296345043</v>
+      </c>
+      <c r="E40">
+        <v>-0.005560581662100864</v>
+      </c>
+      <c r="F40">
+        <v>-0.0625768966024271</v>
+      </c>
+      <c r="G40">
+        <v>-0.03466476397100848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02651987391925132</v>
+        <v>0.02866603812587142</v>
       </c>
       <c r="C41">
-        <v>-0.0211265368361386</v>
+        <v>0.02180094925815758</v>
       </c>
       <c r="D41">
-        <v>0.008515365600553364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.007220338886267967</v>
+      </c>
+      <c r="E41">
+        <v>-0.009115473866274473</v>
+      </c>
+      <c r="F41">
+        <v>0.01164477557123221</v>
+      </c>
+      <c r="G41">
+        <v>-0.01347110491515575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04257129081686098</v>
+        <v>0.04196531841093955</v>
       </c>
       <c r="C43">
-        <v>-0.03880552604458012</v>
+        <v>0.03608021153240657</v>
       </c>
       <c r="D43">
-        <v>-0.001667682957044386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0007509758397669908</v>
+      </c>
+      <c r="E43">
+        <v>-0.02798632600196814</v>
+      </c>
+      <c r="F43">
+        <v>-0.02585552090959698</v>
+      </c>
+      <c r="G43">
+        <v>0.004550337362276369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0558096573488524</v>
+        <v>0.06415217146409438</v>
       </c>
       <c r="C44">
-        <v>-0.07860047042553377</v>
+        <v>0.08594482307031855</v>
       </c>
       <c r="D44">
-        <v>-0.2707408449623459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2477515979673664</v>
+      </c>
+      <c r="E44">
+        <v>0.04809491761708519</v>
+      </c>
+      <c r="F44">
+        <v>-0.1864109076579568</v>
+      </c>
+      <c r="G44">
+        <v>-0.1695356533325802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-2.467378270385729e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0004135018162403783</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>4.273372503554148e-05</v>
+      </c>
+      <c r="E45">
+        <v>-6.343960475803094e-05</v>
+      </c>
+      <c r="F45">
+        <v>-7.911248117318804e-05</v>
+      </c>
+      <c r="G45">
+        <v>0.0003646890404576501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02657825742270758</v>
+        <v>0.0269827875333574</v>
       </c>
       <c r="C46">
-        <v>-0.03090605339617673</v>
+        <v>0.03037588850400479</v>
       </c>
       <c r="D46">
-        <v>-0.01162174505926016</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009440575808358088</v>
+      </c>
+      <c r="E46">
+        <v>-0.03792761455020917</v>
+      </c>
+      <c r="F46">
+        <v>-0.07044017407440349</v>
+      </c>
+      <c r="G46">
+        <v>0.03414514531248685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05186381539546894</v>
+        <v>0.05104906512368467</v>
       </c>
       <c r="C47">
-        <v>-0.02369382145404648</v>
+        <v>0.02603527330873058</v>
       </c>
       <c r="D47">
-        <v>0.02088015921216107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01282538712746975</v>
+      </c>
+      <c r="E47">
+        <v>-0.05867195826876246</v>
+      </c>
+      <c r="F47">
+        <v>0.01454198911334102</v>
+      </c>
+      <c r="G47">
+        <v>0.03320248023744938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04690197185549106</v>
+        <v>0.05031843143381139</v>
       </c>
       <c r="C48">
-        <v>-0.06699020170164534</v>
+        <v>0.06612415299418059</v>
       </c>
       <c r="D48">
-        <v>-0.02133929458167076</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0183946805831988</v>
+      </c>
+      <c r="E48">
+        <v>0.01629998280209046</v>
+      </c>
+      <c r="F48">
+        <v>-0.05470240397300354</v>
+      </c>
+      <c r="G48">
+        <v>0.02422525976707837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1955678181365547</v>
+        <v>0.1980685182557442</v>
       </c>
       <c r="C49">
-        <v>0.009982910737255423</v>
+        <v>-0.002759249403210933</v>
       </c>
       <c r="D49">
-        <v>-0.03386770912976356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04354181586619772</v>
+      </c>
+      <c r="E49">
+        <v>0.02815585953542573</v>
+      </c>
+      <c r="F49">
+        <v>0.06319166681543412</v>
+      </c>
+      <c r="G49">
+        <v>-0.005112404197331315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05049830920090329</v>
+        <v>0.05204578768856259</v>
       </c>
       <c r="C50">
-        <v>-0.02939635508817037</v>
+        <v>0.03236130216685154</v>
       </c>
       <c r="D50">
-        <v>-0.02069460546180472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02527646025752568</v>
+      </c>
+      <c r="E50">
+        <v>-0.02458138716998844</v>
+      </c>
+      <c r="F50">
+        <v>-0.008960408707750089</v>
+      </c>
+      <c r="G50">
+        <v>0.02377392609261387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1446063076103914</v>
+        <v>0.1382748376794063</v>
       </c>
       <c r="C52">
-        <v>-0.03553112210372528</v>
+        <v>0.03617124560865415</v>
       </c>
       <c r="D52">
-        <v>-0.06063360958085266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05988053313323027</v>
+      </c>
+      <c r="E52">
+        <v>-0.02229936596446497</v>
+      </c>
+      <c r="F52">
+        <v>0.06391341958513762</v>
+      </c>
+      <c r="G52">
+        <v>0.02782060950492314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1749389458095755</v>
+        <v>0.1659274595071785</v>
       </c>
       <c r="C53">
-        <v>-0.003091505735262188</v>
+        <v>0.006036182091610083</v>
       </c>
       <c r="D53">
-        <v>-0.1020224264380613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1087281254019935</v>
+      </c>
+      <c r="E53">
+        <v>-0.01309531995446759</v>
+      </c>
+      <c r="F53">
+        <v>0.1097828238890678</v>
+      </c>
+      <c r="G53">
+        <v>0.05921123164363453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01079585584221995</v>
+        <v>0.01435329831138473</v>
       </c>
       <c r="C54">
-        <v>-0.03041036676585072</v>
+        <v>0.030186248845989</v>
       </c>
       <c r="D54">
-        <v>-0.01451466245313703</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01382200666601852</v>
+      </c>
+      <c r="E54">
+        <v>-0.01704160580247679</v>
+      </c>
+      <c r="F54">
+        <v>-0.06069481119819643</v>
+      </c>
+      <c r="G54">
+        <v>-0.002084410800001477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1204509354472107</v>
+        <v>0.1168979560641664</v>
       </c>
       <c r="C55">
-        <v>-0.006065167842439864</v>
+        <v>0.01204314246934492</v>
       </c>
       <c r="D55">
-        <v>-0.06755169014117772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.07028069605176819</v>
+      </c>
+      <c r="E55">
+        <v>-0.04452796697909114</v>
+      </c>
+      <c r="F55">
+        <v>0.03162324091881131</v>
+      </c>
+      <c r="G55">
+        <v>0.06787739465073322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1814574290751931</v>
+        <v>0.1736359232843105</v>
       </c>
       <c r="C56">
-        <v>0.005053741514724243</v>
+        <v>-0.003703062546855409</v>
       </c>
       <c r="D56">
-        <v>-0.05055032219313949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06046148651976441</v>
+      </c>
+      <c r="E56">
+        <v>-0.03799924354069188</v>
+      </c>
+      <c r="F56">
+        <v>0.1442668504406363</v>
+      </c>
+      <c r="G56">
+        <v>0.05990405765361348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04518601323716244</v>
+        <v>0.04511409983512798</v>
       </c>
       <c r="C58">
-        <v>-0.09469027537651052</v>
+        <v>0.1011994016577383</v>
       </c>
       <c r="D58">
-        <v>0.004375337054120608</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0002886494215724304</v>
+      </c>
+      <c r="E58">
+        <v>-0.04789046024449801</v>
+      </c>
+      <c r="F58">
+        <v>-0.04299376729794606</v>
+      </c>
+      <c r="G58">
+        <v>0.02477026406358502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1856733031895252</v>
+        <v>0.1885271363666922</v>
       </c>
       <c r="C59">
-        <v>0.1800878112647579</v>
+        <v>-0.1846488204687473</v>
       </c>
       <c r="D59">
-        <v>0.07852456001634174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07921115866305888</v>
+      </c>
+      <c r="E59">
+        <v>-0.006354873865150212</v>
+      </c>
+      <c r="F59">
+        <v>-0.05378657535750208</v>
+      </c>
+      <c r="G59">
+        <v>0.04484779226382503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2171069373014601</v>
+        <v>0.2116023641324925</v>
       </c>
       <c r="C60">
-        <v>-0.01529142844324422</v>
+        <v>0.02138164317810152</v>
       </c>
       <c r="D60">
-        <v>0.05241874728206825</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03331206462602963</v>
+      </c>
+      <c r="E60">
+        <v>-0.01738906353595714</v>
+      </c>
+      <c r="F60">
+        <v>0.2153651323084855</v>
+      </c>
+      <c r="G60">
+        <v>0.07468235620198924</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06563070361906796</v>
+        <v>0.06270986420872202</v>
       </c>
       <c r="C61">
-        <v>-0.1230296334640563</v>
+        <v>0.1204493544189224</v>
       </c>
       <c r="D61">
-        <v>-0.03524167989195634</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0279113108534213</v>
+      </c>
+      <c r="E61">
+        <v>-0.02389614583368009</v>
+      </c>
+      <c r="F61">
+        <v>-0.08463184587586543</v>
+      </c>
+      <c r="G61">
+        <v>0.02644431383871424</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1679543567381508</v>
+        <v>0.1642396478779091</v>
       </c>
       <c r="C62">
-        <v>0.01024696370212242</v>
+        <v>-0.007446431316416556</v>
       </c>
       <c r="D62">
-        <v>-0.04002368327250363</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05139585268800212</v>
+      </c>
+      <c r="E62">
+        <v>-0.03657047040509044</v>
+      </c>
+      <c r="F62">
+        <v>0.1146557201498917</v>
+      </c>
+      <c r="G62">
+        <v>0.0548362099333399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03746182602068169</v>
+        <v>0.04312621596273692</v>
       </c>
       <c r="C63">
-        <v>-0.0678403938588214</v>
+        <v>0.07148483329892588</v>
       </c>
       <c r="D63">
-        <v>-0.02744170635008091</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02134411509747275</v>
+      </c>
+      <c r="E63">
+        <v>-0.0287264523602723</v>
+      </c>
+      <c r="F63">
+        <v>-0.05429741408035481</v>
+      </c>
+      <c r="G63">
+        <v>-0.02236274587589651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.111633348265049</v>
+        <v>0.1096746560943381</v>
       </c>
       <c r="C64">
-        <v>-0.04965417965423692</v>
+        <v>0.05327638270844527</v>
       </c>
       <c r="D64">
-        <v>-0.03649713691546213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03973829787557339</v>
+      </c>
+      <c r="E64">
+        <v>-0.01250311482320536</v>
+      </c>
+      <c r="F64">
+        <v>0.03200280988851519</v>
+      </c>
+      <c r="G64">
+        <v>0.001695165909381241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1571316487051582</v>
+        <v>0.1601046605547806</v>
       </c>
       <c r="C65">
-        <v>0.06168027535343386</v>
+        <v>-0.05165657576579882</v>
       </c>
       <c r="D65">
-        <v>-0.04338800438403636</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05093097329060468</v>
+      </c>
+      <c r="E65">
+        <v>0.0082265335455454</v>
+      </c>
+      <c r="F65">
+        <v>0.01149433823673407</v>
+      </c>
+      <c r="G65">
+        <v>0.009960518575476168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1030596631915454</v>
+        <v>0.09612848865881178</v>
       </c>
       <c r="C66">
-        <v>-0.1301760069793257</v>
+        <v>0.1300583391506391</v>
       </c>
       <c r="D66">
-        <v>-0.04490923929098971</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0351888995546381</v>
+      </c>
+      <c r="E66">
+        <v>-0.005791486865364999</v>
+      </c>
+      <c r="F66">
+        <v>-0.1028744676552522</v>
+      </c>
+      <c r="G66">
+        <v>0.009769633383195824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05765423145622637</v>
+        <v>0.04858674338824553</v>
       </c>
       <c r="C67">
-        <v>-0.07964951035016607</v>
+        <v>0.07252113831618993</v>
       </c>
       <c r="D67">
-        <v>0.04856362600656561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05019389689503598</v>
+      </c>
+      <c r="E67">
+        <v>-0.08063127164255803</v>
+      </c>
+      <c r="F67">
+        <v>0.03195722042744092</v>
+      </c>
+      <c r="G67">
+        <v>0.0001185183710759943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1382523624252296</v>
+        <v>0.1409762641791268</v>
       </c>
       <c r="C68">
-        <v>0.2483522373145496</v>
+        <v>-0.250981399032874</v>
       </c>
       <c r="D68">
-        <v>0.04374656435714742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04388526757164209</v>
+      </c>
+      <c r="E68">
+        <v>0.1027892686286346</v>
+      </c>
+      <c r="F68">
+        <v>-0.1106967964442389</v>
+      </c>
+      <c r="G68">
+        <v>0.03187122175437504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03928624441089943</v>
+        <v>0.03879688838547213</v>
       </c>
       <c r="C69">
-        <v>-0.01373573148303021</v>
+        <v>0.01548156929793059</v>
       </c>
       <c r="D69">
-        <v>-0.008739646913599802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01189316040019089</v>
+      </c>
+      <c r="E69">
+        <v>-0.06333504512366833</v>
+      </c>
+      <c r="F69">
+        <v>0.04195651991656511</v>
+      </c>
+      <c r="G69">
+        <v>-0.02355495657958036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07029204034253599</v>
+        <v>0.07154763707339903</v>
       </c>
       <c r="C70">
-        <v>-0.07902572034093285</v>
+        <v>0.07272305869428032</v>
       </c>
       <c r="D70">
-        <v>0.5003687235342126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4027416382452851</v>
+      </c>
+      <c r="E70">
+        <v>-0.2157162380132558</v>
+      </c>
+      <c r="F70">
+        <v>0.3898637444658445</v>
+      </c>
+      <c r="G70">
+        <v>0.4087883067883759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1602486580712623</v>
+        <v>0.1644135172956922</v>
       </c>
       <c r="C71">
-        <v>0.2555786088332161</v>
+        <v>-0.2555672483685316</v>
       </c>
       <c r="D71">
-        <v>0.04551933437678533</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04827961868571552</v>
+      </c>
+      <c r="E71">
+        <v>0.1130152512370402</v>
+      </c>
+      <c r="F71">
+        <v>-0.1119838786881312</v>
+      </c>
+      <c r="G71">
+        <v>0.03317764516525208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1429844018774253</v>
+        <v>0.1481512475985424</v>
       </c>
       <c r="C72">
-        <v>-0.01081095297196993</v>
+        <v>0.008925262199200668</v>
       </c>
       <c r="D72">
-        <v>-0.07353769966536697</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06498844027033499</v>
+      </c>
+      <c r="E72">
+        <v>-0.03813399310711283</v>
+      </c>
+      <c r="F72">
+        <v>0.01586284793724932</v>
+      </c>
+      <c r="G72">
+        <v>-0.01361302830913254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1938170674424005</v>
+        <v>0.2010513320259104</v>
       </c>
       <c r="C73">
-        <v>-0.02355032677395858</v>
+        <v>0.0317285300939229</v>
       </c>
       <c r="D73">
-        <v>-0.06811701037701845</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07554319701640622</v>
+      </c>
+      <c r="E73">
+        <v>-0.06946848425419887</v>
+      </c>
+      <c r="F73">
+        <v>0.1077954623543576</v>
+      </c>
+      <c r="G73">
+        <v>-0.02182998232567519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08715640945327642</v>
+        <v>0.08613450745984925</v>
       </c>
       <c r="C74">
-        <v>-0.006245787514441355</v>
+        <v>0.01277337438245238</v>
       </c>
       <c r="D74">
-        <v>-0.07722626961628909</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08260115489214963</v>
+      </c>
+      <c r="E74">
+        <v>-0.02326031626965374</v>
+      </c>
+      <c r="F74">
+        <v>0.06418718089222653</v>
+      </c>
+      <c r="G74">
+        <v>-0.003605952489382446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1240935793020057</v>
+        <v>0.1163865511200873</v>
       </c>
       <c r="C75">
-        <v>-0.01845612910009032</v>
+        <v>0.02203418119390985</v>
       </c>
       <c r="D75">
-        <v>-0.05845038384644347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.05955426447162442</v>
+      </c>
+      <c r="E75">
+        <v>-0.05765371278028153</v>
+      </c>
+      <c r="F75">
+        <v>0.05633870664903637</v>
+      </c>
+      <c r="G75">
+        <v>0.0414331321054642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07152193165696813</v>
+        <v>0.0866653029517522</v>
       </c>
       <c r="C77">
-        <v>-0.1122597077197004</v>
+        <v>0.1113411228522927</v>
       </c>
       <c r="D77">
-        <v>-0.06723286860989951</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06880190407078107</v>
+      </c>
+      <c r="E77">
+        <v>0.0155717975499372</v>
+      </c>
+      <c r="F77">
+        <v>-0.08101986827741399</v>
+      </c>
+      <c r="G77">
+        <v>0.1041848366298358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09024392418192606</v>
+        <v>0.09388415450499302</v>
       </c>
       <c r="C78">
-        <v>-0.1383748137920637</v>
+        <v>0.1361785606396495</v>
       </c>
       <c r="D78">
-        <v>-0.09187142615620202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07262996883189253</v>
+      </c>
+      <c r="E78">
+        <v>0.006342043859888507</v>
+      </c>
+      <c r="F78">
+        <v>-0.1107741135787242</v>
+      </c>
+      <c r="G78">
+        <v>0.10580860675888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1678966312009608</v>
+        <v>0.1628390964721834</v>
       </c>
       <c r="C79">
-        <v>-0.0183898727440337</v>
+        <v>0.01912098422262844</v>
       </c>
       <c r="D79">
-        <v>-0.03402689478262998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03709106216808094</v>
+      </c>
+      <c r="E79">
+        <v>-0.03816463520496415</v>
+      </c>
+      <c r="F79">
+        <v>0.05035132511686987</v>
+      </c>
+      <c r="G79">
+        <v>0.04317530434823628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07524099105746786</v>
+        <v>0.07324105743832392</v>
       </c>
       <c r="C80">
-        <v>-0.05629827563102666</v>
+        <v>0.055081078240245</v>
       </c>
       <c r="D80">
-        <v>-0.008418221743718424</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.006355009184174246</v>
+      </c>
+      <c r="E80">
+        <v>-0.05004132045076738</v>
+      </c>
+      <c r="F80">
+        <v>-0.1210376921974797</v>
+      </c>
+      <c r="G80">
+        <v>-0.09165432644526557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1110125531145454</v>
+        <v>0.1048847312799364</v>
       </c>
       <c r="C81">
-        <v>0.01523790775856157</v>
+        <v>-0.011995443890942</v>
       </c>
       <c r="D81">
-        <v>-0.03067338461863669</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03507804831100269</v>
+      </c>
+      <c r="E81">
+        <v>-0.05941806177812377</v>
+      </c>
+      <c r="F81">
+        <v>0.06180721911416356</v>
+      </c>
+      <c r="G81">
+        <v>0.0127975528754118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1609945575280641</v>
+        <v>0.1574162822445828</v>
       </c>
       <c r="C82">
-        <v>0.02272409197497568</v>
+        <v>-0.01658052160601529</v>
       </c>
       <c r="D82">
-        <v>-0.09085351605014623</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09802304402071881</v>
+      </c>
+      <c r="E82">
+        <v>-0.0048966916576118</v>
+      </c>
+      <c r="F82">
+        <v>0.1006703369347667</v>
+      </c>
+      <c r="G82">
+        <v>-0.005904625400205027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.053132333116073</v>
+        <v>0.04929555156653942</v>
       </c>
       <c r="C83">
-        <v>-0.06043139624278806</v>
+        <v>0.05656802370950006</v>
       </c>
       <c r="D83">
-        <v>0.007945172215158209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01023669485478566</v>
+      </c>
+      <c r="E83">
+        <v>-0.01198264706443945</v>
+      </c>
+      <c r="F83">
+        <v>-0.006329280151084649</v>
+      </c>
+      <c r="G83">
+        <v>0.01786103418441819</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05139622823163434</v>
+        <v>0.04865358012105495</v>
       </c>
       <c r="C84">
-        <v>-0.07428363219345002</v>
+        <v>0.07194073858236927</v>
       </c>
       <c r="D84">
-        <v>-0.00594560112264939</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.005730581839336286</v>
+      </c>
+      <c r="E84">
+        <v>-0.01038347582606364</v>
+      </c>
+      <c r="F84">
+        <v>0.01478832817148217</v>
+      </c>
+      <c r="G84">
+        <v>0.03396641133349233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1403599794945942</v>
+        <v>0.1343389622195806</v>
       </c>
       <c r="C85">
-        <v>-0.008450684178982024</v>
+        <v>0.01133734023266942</v>
       </c>
       <c r="D85">
-        <v>-0.09404283936666687</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09320966201858413</v>
+      </c>
+      <c r="E85">
+        <v>-0.01765856962768087</v>
+      </c>
+      <c r="F85">
+        <v>0.03956987837227857</v>
+      </c>
+      <c r="G85">
+        <v>0.02737625997689089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08279961745808022</v>
+        <v>0.08097584763806354</v>
       </c>
       <c r="C86">
-        <v>-0.09375454239927314</v>
+        <v>0.09520507077142493</v>
       </c>
       <c r="D86">
-        <v>0.5029775655451668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5672362644550437</v>
+      </c>
+      <c r="E86">
+        <v>-0.4649138729556508</v>
+      </c>
+      <c r="F86">
+        <v>-0.4744127193240825</v>
+      </c>
+      <c r="G86">
+        <v>-0.05119203356368908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08836916498451702</v>
+        <v>0.08741964244627791</v>
       </c>
       <c r="C87">
-        <v>-0.08383863541479931</v>
+        <v>0.08556830213975092</v>
       </c>
       <c r="D87">
-        <v>-0.04556120167888131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.03213086745129774</v>
+      </c>
+      <c r="E87">
+        <v>0.1017553923829594</v>
+      </c>
+      <c r="F87">
+        <v>-0.09575365437738703</v>
+      </c>
+      <c r="G87">
+        <v>-0.06211268798572164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06075336169359703</v>
+        <v>0.06037122134357371</v>
       </c>
       <c r="C88">
-        <v>-0.05944763561642032</v>
+        <v>0.06004748223880169</v>
       </c>
       <c r="D88">
-        <v>-0.01521115288678719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01765285867802838</v>
+      </c>
+      <c r="E88">
+        <v>-0.01410655557916217</v>
+      </c>
+      <c r="F88">
+        <v>0.02565533066955638</v>
+      </c>
+      <c r="G88">
+        <v>0.01280775170668596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.147037897238672</v>
+        <v>0.1492734938901659</v>
       </c>
       <c r="C89">
-        <v>0.1968991091584802</v>
+        <v>-0.2082406215493493</v>
       </c>
       <c r="D89">
-        <v>0.02132550052203666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03073361758930272</v>
+      </c>
+      <c r="E89">
+        <v>0.09178936157377018</v>
+      </c>
+      <c r="F89">
+        <v>-0.08624738776862907</v>
+      </c>
+      <c r="G89">
+        <v>0.003239543875955806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.174618194169328</v>
+        <v>0.1816814221666782</v>
       </c>
       <c r="C90">
-        <v>0.2317891450945547</v>
+        <v>-0.2397299767453319</v>
       </c>
       <c r="D90">
-        <v>0.06001108760710063</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.06701656290043628</v>
+      </c>
+      <c r="E90">
+        <v>0.1397483851801126</v>
+      </c>
+      <c r="F90">
+        <v>-0.1290487394465331</v>
+      </c>
+      <c r="G90">
+        <v>0.01831793932555769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1264210325541829</v>
+        <v>0.1205712256794258</v>
       </c>
       <c r="C91">
-        <v>0.02143104371638306</v>
+        <v>-0.01957835881742218</v>
       </c>
       <c r="D91">
-        <v>-0.02756227658104615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02765133491971134</v>
+      </c>
+      <c r="E91">
+        <v>-0.09265600998875601</v>
+      </c>
+      <c r="F91">
+        <v>0.08866049778224576</v>
+      </c>
+      <c r="G91">
+        <v>-0.004763154366927939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1687382872619104</v>
+        <v>0.1714177780291515</v>
       </c>
       <c r="C92">
-        <v>0.2671490088391485</v>
+        <v>-0.2788667632700693</v>
       </c>
       <c r="D92">
-        <v>0.05908009385501536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05404520119683883</v>
+      </c>
+      <c r="E92">
+        <v>0.09767173371930653</v>
+      </c>
+      <c r="F92">
+        <v>-0.1697394361203318</v>
+      </c>
+      <c r="G92">
+        <v>0.07830725904275053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.175530378717084</v>
+        <v>0.1829440271579382</v>
       </c>
       <c r="C93">
-        <v>0.2239047119860565</v>
+        <v>-0.2308869256261133</v>
       </c>
       <c r="D93">
-        <v>0.03103645571363097</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03068661036782074</v>
+      </c>
+      <c r="E93">
+        <v>0.06721949197494102</v>
+      </c>
+      <c r="F93">
+        <v>-0.08486047985440472</v>
+      </c>
+      <c r="G93">
+        <v>0.07247264806936335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1195232581566521</v>
+        <v>0.1138852843464756</v>
       </c>
       <c r="C94">
-        <v>-0.0321165052411205</v>
+        <v>0.03283460529665599</v>
       </c>
       <c r="D94">
-        <v>-0.05173743493351845</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0519648886470825</v>
+      </c>
+      <c r="E94">
+        <v>-0.0583580163800634</v>
+      </c>
+      <c r="F94">
+        <v>0.05495707197203781</v>
+      </c>
+      <c r="G94">
+        <v>0.03591190940823462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1194802394991995</v>
+        <v>0.1224566590089694</v>
       </c>
       <c r="C95">
-        <v>-0.107908215100731</v>
+        <v>0.1158136830013211</v>
       </c>
       <c r="D95">
-        <v>-0.0007450963086743171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.004804952201033089</v>
+      </c>
+      <c r="E95">
+        <v>-0.05056653454203162</v>
+      </c>
+      <c r="F95">
+        <v>-0.04972514329448145</v>
+      </c>
+      <c r="G95">
+        <v>0.005140510702119672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1246547631123136</v>
+        <v>0.122389843564276</v>
       </c>
       <c r="C96">
-        <v>-0.1232088692530089</v>
+        <v>0.130849394848459</v>
       </c>
       <c r="D96">
-        <v>0.05026096025977471</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.01906732726303324</v>
+      </c>
+      <c r="E96">
+        <v>-0.0850663343172747</v>
+      </c>
+      <c r="F96">
+        <v>0.1614656452989847</v>
+      </c>
+      <c r="G96">
+        <v>0.04565626713707751</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1917652370835224</v>
+        <v>0.1959464236101802</v>
       </c>
       <c r="C97">
-        <v>0.007735880597011738</v>
+        <v>-0.009134644830748525</v>
       </c>
       <c r="D97">
-        <v>0.137956440409643</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1717091702561066</v>
+      </c>
+      <c r="E97">
+        <v>-0.1061124865878779</v>
+      </c>
+      <c r="F97">
+        <v>0.2544499895767244</v>
+      </c>
+      <c r="G97">
+        <v>-0.8328658259827322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1985960665346585</v>
+        <v>0.2041782528207399</v>
       </c>
       <c r="C98">
-        <v>-0.02263162778646622</v>
+        <v>0.02849732846311021</v>
       </c>
       <c r="D98">
-        <v>0.1146106641820228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1034809231857525</v>
+      </c>
+      <c r="E98">
+        <v>0.02690276515974293</v>
+      </c>
+      <c r="F98">
+        <v>0.0988750236315377</v>
+      </c>
+      <c r="G98">
+        <v>0.007041889402552046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05376993092604478</v>
+        <v>0.05362395621562956</v>
       </c>
       <c r="C99">
-        <v>-0.05285094977748499</v>
+        <v>0.05481389933967735</v>
       </c>
       <c r="D99">
-        <v>-0.009322403899300603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.00831837498158379</v>
+      </c>
+      <c r="E99">
+        <v>6.471287021740717e-05</v>
+      </c>
+      <c r="F99">
+        <v>-0.04016355195622948</v>
+      </c>
+      <c r="G99">
+        <v>-0.005972204443602714</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.114344002668923</v>
+        <v>0.1079994377727766</v>
       </c>
       <c r="C100">
-        <v>-0.4015952716412838</v>
+        <v>0.3673349152808482</v>
       </c>
       <c r="D100">
-        <v>0.4280640829019744</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.4669627803940493</v>
+      </c>
+      <c r="E100">
+        <v>0.7260104556557521</v>
+      </c>
+      <c r="F100">
+        <v>0.05369224824903892</v>
+      </c>
+      <c r="G100">
+        <v>-0.02229089289021571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02396569915134789</v>
+        <v>0.0269303536276041</v>
       </c>
       <c r="C101">
-        <v>-0.04698868601986463</v>
+        <v>0.04464957433932174</v>
       </c>
       <c r="D101">
-        <v>-0.007456626291098997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.004224618531732439</v>
+      </c>
+      <c r="E101">
+        <v>-0.0273415335767665</v>
+      </c>
+      <c r="F101">
+        <v>-0.07286554153263534</v>
+      </c>
+      <c r="G101">
+        <v>0.006858470561800585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
